--- a/바이오 데이터_리스트.xlsx
+++ b/바이오 데이터_리스트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Desktop\Bioinformatics_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,15 +54,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#Classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청각테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Categorical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Mixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#Classes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청각테스트</t>
+    <t>심장병 주기 판별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간염 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐암 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유전자 패턴 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피마 인디언 당뇨병 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파킨슨병 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유방 조직검사로 통한 패턴인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흉부 수술 후 1년이상 생존 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audiology(Original)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,7 +150,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Missing Value</t>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audiology(Standardized)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유방암 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장균판별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardiotocograms을 통한 심장 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cervical Cancer 판단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,11 +206,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>파킨슨병을 앓는 사람 중 걷기 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Categorical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부검사를 통한 질병 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망막증 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dorothea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약물 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장마비로 부터 1년 이상 생존유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Real</t>
+    <t>눈 상태 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간질 발작 패턴 판단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,47 +258,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심장병 주기 판별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간염 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폐암 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유전자 패턴 인식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피마 인디언 당뇨병 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파킨슨병 판단</t>
+    <t>인디언의 간환자 패턴 나누기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간 상태 패턴 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유방 관련 질병 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Categorical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -138,71 +282,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유방 조직검사로 통한 패턴인식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흉부 수술 후 1년이상 생존 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audiology(Original)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Categorical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audiology(Standardized)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유방암 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장균판별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardiotocograms을 통한 심장 패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cervical Cancer 판단</t>
+    <t>Molecular Biology (Promoter Gene Sequences)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자 퇴원 가능 유무 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질경 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart Disease 데이터에서 살짝 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑상선 병 예측</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,106 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파킨슨병을 앓는 사람 중 걷기 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Categorical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피부검사를 통한 질병 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>망막증 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dorothea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약물 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심장마비로 부터 1년 이상 생존유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈 상태 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간질 발작 패턴 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인디언의 간환자 패턴 나누기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간 상태 패턴 인식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유방 관련 질병 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Categorical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Molecular Biology (Promoter Gene Sequences)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환자 퇴원 가능 유무 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질경 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart Disease 데이터에서 살짝 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑상선 병 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타입 예측</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Breast Cancer Wisconsin(Dignostic) / W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cervical cancer(Risk Factors) / O (? 너무 많아서 피쳐 다사라짐) 516-&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,6 +431,14 @@
   </si>
   <si>
     <t>Yeast / W / D(환자이름 지우고 클래스 문자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numerical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast Cancer Wisconsin(Dignostic) / W / DL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -826,7 +826,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -835,16 +835,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>900</v>
@@ -870,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>452</v>
@@ -890,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>226</v>
@@ -916,13 +916,13 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>226</v>
@@ -942,13 +942,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>569</v>
@@ -968,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>699</v>
@@ -994,13 +994,13 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>198</v>
@@ -1020,13 +1020,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>106</v>
@@ -1046,13 +1046,13 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1060,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>2126</v>
@@ -1072,13 +1072,13 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>858</v>
@@ -1098,13 +1098,13 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>237</v>
@@ -1124,13 +1124,13 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>366</v>
@@ -1150,13 +1150,13 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>1151</v>
@@ -1176,13 +1176,13 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1190,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>1950</v>
@@ -1202,13 +1202,13 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1216,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>132</v>
@@ -1228,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
         <v>53</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>54</v>
-      </c>
-      <c r="H16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>336</v>
@@ -1254,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
         <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1268,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>14980</v>
@@ -1280,13 +1280,13 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>11500</v>
@@ -1306,13 +1306,13 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
         <v>57</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1320,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <v>303</v>
@@ -1332,13 +1332,13 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1346,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>155</v>
@@ -1358,13 +1358,13 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1372,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22">
         <v>583</v>
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1398,7 +1398,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>354</v>
@@ -1410,13 +1410,13 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1424,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>32</v>
@@ -1439,10 +1439,10 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1450,7 +1450,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>961</v>
@@ -1462,13 +1462,13 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1476,7 +1476,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <v>106</v>
@@ -1488,13 +1488,13 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
         <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>3190</v>
@@ -1514,13 +1514,13 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1528,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28">
         <v>197</v>
@@ -1540,13 +1540,13 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
         <v>25</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>26</v>
-      </c>
-      <c r="H28" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29">
         <v>768</v>
@@ -1566,13 +1566,13 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1580,7 +1580,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>90</v>
@@ -1592,13 +1592,13 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1606,7 +1606,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31">
         <v>287</v>
@@ -1618,13 +1618,13 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1632,7 +1632,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32">
         <v>270</v>
@@ -1644,13 +1644,13 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1658,7 +1658,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33">
         <v>470</v>
@@ -1670,13 +1670,13 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1684,7 +1684,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>7200</v>
@@ -1696,13 +1696,13 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" t="s">
         <v>69</v>
-      </c>
-      <c r="H34" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35">
         <v>1484</v>
@@ -1722,13 +1722,13 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/바이오 데이터_리스트.xlsx
+++ b/바이오 데이터_리스트.xlsx
@@ -322,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Breast Cancer Wisconsin(Original) / W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Daphnet Freezing of Gait / Mul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,6 +435,10 @@
   </si>
   <si>
     <t>Breast Cancer Wisconsin(Dignostic) / W / DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast Cancer Wisconsin(Original) / W / DL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +809,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -826,7 +826,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>900</v>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>452</v>
@@ -890,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>569</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>699</v>
@@ -1008,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>198</v>
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>106</v>
@@ -1060,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>2126</v>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>858</v>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>237</v>
@@ -1138,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>366</v>
@@ -1164,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>1151</v>
@@ -1216,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16">
         <v>132</v>
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>336</v>
@@ -1268,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>14980</v>
@@ -1294,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>11500</v>
@@ -1320,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>303</v>
@@ -1372,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>583</v>
@@ -1398,7 +1398,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>354</v>
@@ -1424,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>32</v>
@@ -1502,7 +1502,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>3190</v>
@@ -1528,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>197</v>
@@ -1554,7 +1554,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>768</v>
@@ -1606,7 +1606,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31">
         <v>287</v>
@@ -1632,7 +1632,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>270</v>
@@ -1658,7 +1658,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33">
         <v>470</v>
@@ -1684,7 +1684,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>7200</v>
@@ -1710,7 +1710,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>1484</v>

--- a/바이오 데이터_리스트.xlsx
+++ b/바이오 데이터_리스트.xlsx
@@ -338,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Breast Cancer Wisconsin(Prognostic) / W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Data Set(이름 옆에 W: Wrapper까지 잘 작동, O: Wrapper만 작동 안되고 나머지는 작동, Mul: 데이터가 여러 개로 분산 ,Nan : 에러, 아무것도 안써져있으면 에러 or 아직 시도안함) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,75 +366,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Breast Tissue / W / D?(class 문자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dermatology / W / D(missing value 2샘플)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Diabetic Retinopathy Debrecen Data Set / W / D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ecoli / 피쳐 1개 지웠더니 됨 / D( 환자이름없애야되고 클래스 문자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEG Eye State / W / D</t>
+    <t>Heart Disease / Mul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian Liver Patient Dataset / W/ D 피쳐하나 문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver Disorders / W / D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinsons / W / D (name문자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pima Indians Diabetes / W /D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Assessment of Digital Colposcopies / W / D(클래스 문자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statlog (Heart) / W / D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Thyroid Disease / Mul / </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeast / W / D(환자이름 지우고 클래스 문자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numerical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast Cancer Wisconsin(Dignostic) / W / DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast Cancer Wisconsin(Original) / W / DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast Cancer Wisconsin(Prognostic) / W / DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast Tissue / W / D?(class 문자) / DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diabetic Retinopathy Debrecen Data Set / W / D / DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecoli / 피쳐 1개 지웠더니 됨 / D( 환자이름없애야되고 클래스 문자)/DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEG Eye State / W / D / DL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Epileptic Seizure Recognition / D환자이름 지워야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart Disease / Mul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indian Liver Patient Dataset / W/ D 피쳐하나 문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver Disorders / W / D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkinsons / W / D (name문자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pima Indians Diabetes / W /D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quality Assessment of Digital Colposcopies / W / D(클래스 문자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statlog (Heart) / W / D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Thyroid Disease / Mul / </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeast / W / D(환자이름 지우고 클래스 문자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numerical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breast Cancer Wisconsin(Dignostic) / W / DL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breast Cancer Wisconsin(Original) / W / DL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,14 +808,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="56.25" customWidth="1"/>
+    <col min="2" max="2" width="58.75" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -826,7 +826,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>900</v>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>452</v>
@@ -890,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>569</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>699</v>
@@ -1008,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>198</v>
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>106</v>
@@ -1060,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>2126</v>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>858</v>
@@ -1138,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>366</v>
@@ -1164,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>1151</v>
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C17">
         <v>336</v>
@@ -1268,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C18">
         <v>14980</v>
@@ -1294,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <v>11500</v>
@@ -1320,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>303</v>
@@ -1372,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C22">
         <v>583</v>
@@ -1398,7 +1398,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C23">
         <v>354</v>
@@ -1502,7 +1502,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>3190</v>
@@ -1528,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C28">
         <v>197</v>
@@ -1554,7 +1554,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>768</v>
@@ -1606,7 +1606,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C31">
         <v>287</v>
@@ -1632,7 +1632,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C32">
         <v>270</v>
@@ -1684,7 +1684,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C34">
         <v>7200</v>
@@ -1710,7 +1710,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C35">
         <v>1484</v>

--- a/바이오 데이터_리스트.xlsx
+++ b/바이오 데이터_리스트.xlsx
@@ -310,18 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Post-Operative Patient / W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mammographic Mass / W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hepatitis / W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Daphnet Freezing of Gait / Mul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Thoracic Surgery / Nan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lung Cancer / Nan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,27 +358,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Indian Liver Patient Dataset / W/ D 피쳐하나 문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver Disorders / W / D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkinsons / W / D (name문자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pima Indians Diabetes / W /D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quality Assessment of Digital Colposcopies / W / D(클래스 문자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statlog (Heart) / W / D</t>
+    <t>numerical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast Cancer Wisconsin(Dignostic) / W / DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast Cancer Wisconsin(Original) / W / DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast Cancer Wisconsin(Prognostic) / W / DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast Tissue / W / D?(class 문자) / DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinsons / W / D (name문자) / DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pima Indians Diabetes / W /D / DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statlog (Heart) / W / D / DL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diabetic Retinopathy Debrecen Data Set / W / D / DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEG Eye State / W / D / DL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epileptic Seizure Recognition / D환자이름 지워야 / DL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver Disorders / W / D / DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecoli / 피쳐 1개 지웠더니 됨 / D( 환자이름없애야되고 클래스 문자)/DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hepatitis / W / ?너무 많음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian Liver Patient Dataset / W/ D 피쳐하나 문자 / DL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mammographic Mass / W / ?너무 많음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post-Operative Patient / W / 문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Assessment of Digital Colposcopies / W / D(클래스 문자 / DL0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -402,43 +434,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yeast / W / D(환자이름 지우고 클래스 문자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numerical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breast Cancer Wisconsin(Dignostic) / W / DL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breast Cancer Wisconsin(Original) / W / DL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breast Cancer Wisconsin(Prognostic) / W / DL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breast Tissue / W / D?(class 문자) / DL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diabetic Retinopathy Debrecen Data Set / W / D / DL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ecoli / 피쳐 1개 지웠더니 됨 / D( 환자이름없애야되고 클래스 문자)/DL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEG Eye State / W / D / DL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epileptic Seizure Recognition / D환자이름 지워야</t>
+    <t>Thoracic Surgery / Nan / Categorical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeast / W / D(환자이름 지우고 클래스 문자) / DL0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -826,7 +826,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>900</v>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>452</v>
@@ -890,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>569</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>699</v>
@@ -1008,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>198</v>
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>106</v>
@@ -1060,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>2126</v>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>858</v>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>237</v>
@@ -1138,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>366</v>
@@ -1164,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>1151</v>
@@ -1216,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>132</v>
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>336</v>
@@ -1268,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>14980</v>
@@ -1294,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>11500</v>
@@ -1320,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C20">
         <v>303</v>
@@ -1346,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>155</v>
@@ -1372,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>583</v>
@@ -1398,7 +1398,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>354</v>
@@ -1424,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>32</v>
@@ -1450,7 +1450,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C25">
         <v>961</v>
@@ -1502,7 +1502,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <v>3190</v>
@@ -1528,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <v>197</v>
@@ -1554,7 +1554,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>768</v>
@@ -1580,7 +1580,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C30">
         <v>90</v>
@@ -1601,12 +1601,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>287</v>
@@ -1632,7 +1632,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <v>270</v>
@@ -1658,7 +1658,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C33">
         <v>470</v>
@@ -1684,7 +1684,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C34">
         <v>7200</v>
@@ -1710,7 +1710,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C35">
         <v>1484</v>

--- a/바이오 데이터_리스트.xlsx
+++ b/바이오 데이터_리스트.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Desktop\Bioinformatics_DL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeDongJae\Desktop\Bioinformatics_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0DB68F-2ED4-4455-885A-BD83C97BBF7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13155"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Statlog (Heart) / W / D / DL0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Diabetic Retinopathy Debrecen Data Set / W / D / DL1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,10 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Quality Assessment of Digital Colposcopies / W / D(클래스 문자 / DL0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Thyroid Disease / Mul / </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,14 +431,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yeast / W / D(환자이름 지우고 클래스 문자) / DL0</t>
+    <t>Yeast / W / D(환자이름 지우고 클래스 문자) / DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Assessment of Digital Colposcopies / W / D(클래스 문자 / DL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statlog (Heart) / W / D / DL1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,26 +806,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="58.75" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="58.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <col min="7" max="7" width="3.69921875" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>74</v>
       </c>
@@ -847,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -873,7 +874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -899,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -925,7 +926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -951,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -977,7 +978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1159,12 +1160,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>1151</v>
@@ -1185,7 +1186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1237,12 +1238,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>336</v>
@@ -1263,12 +1264,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>14980</v>
@@ -1289,12 +1290,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>11500</v>
@@ -1315,7 +1316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1341,12 +1342,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>155</v>
@@ -1367,12 +1368,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>583</v>
@@ -1393,12 +1394,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23">
         <v>354</v>
@@ -1419,7 +1420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1445,12 +1446,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25">
         <v>961</v>
@@ -1471,7 +1472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1575,12 +1576,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>90</v>
@@ -1601,12 +1602,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C31">
         <v>287</v>
@@ -1627,12 +1628,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C32">
         <v>270</v>
@@ -1653,12 +1654,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>470</v>
@@ -1679,12 +1680,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>7200</v>
@@ -1705,12 +1706,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35">
         <v>1484</v>
